--- a/Heuristicas/Resultado_Ensemble_smape_cenario_teste_PSO.xlsx
+++ b/Heuristicas/Resultado_Ensemble_smape_cenario_teste_PSO.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\TCC\Heuristicas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB8B4D2-1649-499A-BD5E-7DB8159AC240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>serie</t>
   </si>
@@ -32,13 +48,226 @@
   </si>
   <si>
     <t>ts1</t>
+  </si>
+  <si>
+    <t>ts10</t>
+  </si>
+  <si>
+    <t>ts11</t>
+  </si>
+  <si>
+    <t>ts12</t>
+  </si>
+  <si>
+    <t>ts13</t>
+  </si>
+  <si>
+    <t>ts14</t>
+  </si>
+  <si>
+    <t>ts15</t>
+  </si>
+  <si>
+    <t>ts16</t>
+  </si>
+  <si>
+    <t>ts17</t>
+  </si>
+  <si>
+    <t>ts18</t>
+  </si>
+  <si>
+    <t>ts19</t>
+  </si>
+  <si>
+    <t>ts2</t>
+  </si>
+  <si>
+    <t>ts20</t>
+  </si>
+  <si>
+    <t>ts21</t>
+  </si>
+  <si>
+    <t>ts22</t>
+  </si>
+  <si>
+    <t>ts23</t>
+  </si>
+  <si>
+    <t>ts24</t>
+  </si>
+  <si>
+    <t>ts25</t>
+  </si>
+  <si>
+    <t>ts26</t>
+  </si>
+  <si>
+    <t>ts27</t>
+  </si>
+  <si>
+    <t>ts28</t>
+  </si>
+  <si>
+    <t>ts29</t>
+  </si>
+  <si>
+    <t>ts3</t>
+  </si>
+  <si>
+    <t>ts30</t>
+  </si>
+  <si>
+    <t>ts31</t>
+  </si>
+  <si>
+    <t>ts32</t>
+  </si>
+  <si>
+    <t>ts33</t>
+  </si>
+  <si>
+    <t>ts34</t>
+  </si>
+  <si>
+    <t>ts35</t>
+  </si>
+  <si>
+    <t>ts36</t>
+  </si>
+  <si>
+    <t>ts37</t>
+  </si>
+  <si>
+    <t>ts38</t>
+  </si>
+  <si>
+    <t>ts39</t>
+  </si>
+  <si>
+    <t>ts4</t>
+  </si>
+  <si>
+    <t>ts40</t>
+  </si>
+  <si>
+    <t>ts41</t>
+  </si>
+  <si>
+    <t>ts42</t>
+  </si>
+  <si>
+    <t>ts43</t>
+  </si>
+  <si>
+    <t>ts44</t>
+  </si>
+  <si>
+    <t>ts45</t>
+  </si>
+  <si>
+    <t>ts46</t>
+  </si>
+  <si>
+    <t>ts47</t>
+  </si>
+  <si>
+    <t>ts48</t>
+  </si>
+  <si>
+    <t>ts49</t>
+  </si>
+  <si>
+    <t>ts5</t>
+  </si>
+  <si>
+    <t>ts50</t>
+  </si>
+  <si>
+    <t>ts51</t>
+  </si>
+  <si>
+    <t>ts52</t>
+  </si>
+  <si>
+    <t>ts53</t>
+  </si>
+  <si>
+    <t>ts54</t>
+  </si>
+  <si>
+    <t>ts55</t>
+  </si>
+  <si>
+    <t>ts56</t>
+  </si>
+  <si>
+    <t>ts57</t>
+  </si>
+  <si>
+    <t>ts58</t>
+  </si>
+  <si>
+    <t>ts59</t>
+  </si>
+  <si>
+    <t>ts6</t>
+  </si>
+  <si>
+    <t>ts60</t>
+  </si>
+  <si>
+    <t>ts61</t>
+  </si>
+  <si>
+    <t>ts62</t>
+  </si>
+  <si>
+    <t>ts63</t>
+  </si>
+  <si>
+    <t>ts64</t>
+  </si>
+  <si>
+    <t>ts65</t>
+  </si>
+  <si>
+    <t>ts66</t>
+  </si>
+  <si>
+    <t>ts67</t>
+  </si>
+  <si>
+    <t>ts68</t>
+  </si>
+  <si>
+    <t>ts69</t>
+  </si>
+  <si>
+    <t>ts7</t>
+  </si>
+  <si>
+    <t>ts70</t>
+  </si>
+  <si>
+    <t>ts71</t>
+  </si>
+  <si>
+    <t>ts72</t>
+  </si>
+  <si>
+    <t>ts8</t>
+  </si>
+  <si>
+    <t>ts9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,11 +330,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -147,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,14 +661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:E74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,21 +687,1246 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.019</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>35.817</v>
+        <v>35.298000000000002</v>
       </c>
       <c r="E2">
-        <v>0.718</v>
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>2E-3</v>
+      </c>
+      <c r="D4">
+        <v>6.0170000000000003</v>
+      </c>
+      <c r="E4">
+        <v>1.1679999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>23.742999999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>102.84399999999999</v>
+      </c>
+      <c r="E6">
+        <v>3.3889999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C7">
+        <v>1E-3</v>
+      </c>
+      <c r="D7">
+        <v>90.152000000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.8440000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>212.352</v>
+      </c>
+      <c r="E8">
+        <v>7.9930000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9">
+        <v>190.12200000000001</v>
+      </c>
+      <c r="E9">
+        <v>7.2389999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C10">
+        <v>1E-3</v>
+      </c>
+      <c r="D10">
+        <v>184.45</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.223</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>190.40700000000001</v>
+      </c>
+      <c r="E11">
+        <v>8.6219999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.115</v>
+      </c>
+      <c r="C12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>205.001</v>
+      </c>
+      <c r="E12">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>11.465999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>122.114</v>
+      </c>
+      <c r="E14">
+        <v>14.004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.224</v>
+      </c>
+      <c r="C15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D15">
+        <v>45.101999999999997</v>
+      </c>
+      <c r="E15">
+        <v>1.0489999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0.161</v>
+      </c>
+      <c r="C16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>31.742999999999999</v>
+      </c>
+      <c r="E16">
+        <v>3.4950000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>33.738999999999997</v>
+      </c>
+      <c r="E17">
+        <v>2.0779999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D18">
+        <v>22.515999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C19">
+        <v>1E-3</v>
+      </c>
+      <c r="D19">
+        <v>80.317999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C20">
+        <v>1E-3</v>
+      </c>
+      <c r="D20">
+        <v>43.343000000000004</v>
+      </c>
+      <c r="E20">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D21">
+        <v>100.587</v>
+      </c>
+      <c r="E21">
+        <v>12.403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D22">
+        <v>212.19399999999999</v>
+      </c>
+      <c r="E22">
+        <v>23.661000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <v>164.73400000000001</v>
+      </c>
+      <c r="E23">
+        <v>4.1180000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C24">
+        <v>1E-3</v>
+      </c>
+      <c r="D24">
+        <v>42.442</v>
+      </c>
+      <c r="E24">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C25">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D25">
+        <v>131.87</v>
+      </c>
+      <c r="E25">
+        <v>7.931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D26">
+        <v>18.45</v>
+      </c>
+      <c r="E26">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C27">
+        <v>1E-3</v>
+      </c>
+      <c r="D27">
+        <v>39.912999999999997</v>
+      </c>
+      <c r="E27">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D28">
+        <v>74.989000000000004</v>
+      </c>
+      <c r="E28">
+        <v>2.8780000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>0.184</v>
+      </c>
+      <c r="C29">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D29">
+        <v>229.10900000000001</v>
+      </c>
+      <c r="E29">
+        <v>31.145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C30">
+        <v>1E-3</v>
+      </c>
+      <c r="D30">
+        <v>23.948</v>
+      </c>
+      <c r="E30">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D31">
+        <v>43.686</v>
+      </c>
+      <c r="E31">
+        <v>1.4930000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>0.154</v>
+      </c>
+      <c r="C32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D32">
+        <v>353.839</v>
+      </c>
+      <c r="E32">
+        <v>12.964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>0.08</v>
+      </c>
+      <c r="C33">
+        <v>1E-3</v>
+      </c>
+      <c r="D33">
+        <v>36.072000000000003</v>
+      </c>
+      <c r="E33">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="C34">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D34">
+        <v>410.44099999999997</v>
+      </c>
+      <c r="E34">
+        <v>12.162000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>79.015000000000001</v>
+      </c>
+      <c r="E35">
+        <v>5.0220000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>0.115</v>
+      </c>
+      <c r="C36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>172.745</v>
+      </c>
+      <c r="E36">
+        <v>3.1789999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.156</v>
+      </c>
+      <c r="C37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D37">
+        <v>9.15</v>
+      </c>
+      <c r="E37">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="C38">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D38">
+        <v>314.846</v>
+      </c>
+      <c r="E38">
+        <v>22.882999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C39">
+        <v>2E-3</v>
+      </c>
+      <c r="D39">
+        <v>38.097000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C40">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D40">
+        <v>6.359</v>
+      </c>
+      <c r="E40">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>0.24</v>
+      </c>
+      <c r="C41">
+        <v>0.01</v>
+      </c>
+      <c r="D41">
+        <v>393.07</v>
+      </c>
+      <c r="E41">
+        <v>16.576000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>0.246</v>
+      </c>
+      <c r="C42">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D42">
+        <v>338.49299999999999</v>
+      </c>
+      <c r="E42">
+        <v>35.866</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0.104</v>
+      </c>
+      <c r="C43">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D43">
+        <v>63.122999999999998</v>
+      </c>
+      <c r="E43">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C44">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D44">
+        <v>315.21600000000001</v>
+      </c>
+      <c r="E44">
+        <v>5.8689999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C45">
+        <v>2E-3</v>
+      </c>
+      <c r="D45">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>0.16</v>
+      </c>
+      <c r="C46">
+        <v>1E-3</v>
+      </c>
+      <c r="D46">
+        <v>105.28400000000001</v>
+      </c>
+      <c r="E46">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>0.02</v>
+      </c>
+      <c r="C47">
+        <v>2E-3</v>
+      </c>
+      <c r="D47">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E47">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C48">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D48">
+        <v>325076.21899999998</v>
+      </c>
+      <c r="E48">
+        <v>87407.17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D49">
+        <v>568383.89500000002</v>
+      </c>
+      <c r="E49">
+        <v>17545.940999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>68.52</v>
+      </c>
+      <c r="E50">
+        <v>3.7109999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C51">
+        <v>1E-3</v>
+      </c>
+      <c r="D51">
+        <v>9817194.8849999998</v>
+      </c>
+      <c r="E51">
+        <v>796606.38800000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>10675610.487</v>
+      </c>
+      <c r="E52">
+        <v>145882.552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C53">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D53">
+        <v>47.225000000000001</v>
+      </c>
+      <c r="E53">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>0.625</v>
+      </c>
+      <c r="C54">
+        <v>0.106</v>
+      </c>
+      <c r="D54">
+        <v>4459.1059999999998</v>
+      </c>
+      <c r="E54">
+        <v>1607.625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>0.214</v>
+      </c>
+      <c r="C55">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D55">
+        <v>106.93</v>
+      </c>
+      <c r="E55">
+        <v>17.279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C56">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D56">
+        <v>3356.837</v>
+      </c>
+      <c r="E56">
+        <v>159.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C57">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D57">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="E57">
+        <v>14.802</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>0.192</v>
+      </c>
+      <c r="C58">
+        <v>0.02</v>
+      </c>
+      <c r="D58">
+        <v>14297.482</v>
+      </c>
+      <c r="E58">
+        <v>1226.8130000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C59">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D59">
+        <v>1408.576</v>
+      </c>
+      <c r="E59">
+        <v>119.30500000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C60">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D60">
+        <v>113.625</v>
+      </c>
+      <c r="E60">
+        <v>7.0259999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.01</v>
+      </c>
+      <c r="D61">
+        <v>164.56800000000001</v>
+      </c>
+      <c r="E61">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="C62">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D62">
+        <v>90.128</v>
+      </c>
+      <c r="E62">
+        <v>8.0109999999999992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C63">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D63">
+        <v>1143.2919999999999</v>
+      </c>
+      <c r="E63">
+        <v>300.37900000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>0.18</v>
+      </c>
+      <c r="C64">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D64">
+        <v>7712.7449999999999</v>
+      </c>
+      <c r="E64">
+        <v>380.28100000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>0.498</v>
+      </c>
+      <c r="C65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D65">
+        <v>17661.11</v>
+      </c>
+      <c r="E65">
+        <v>90.296999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>0.255</v>
+      </c>
+      <c r="C66">
+        <v>0.06</v>
+      </c>
+      <c r="D66">
+        <v>5059.375</v>
+      </c>
+      <c r="E66">
+        <v>1051.9690000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>0.113</v>
+      </c>
+      <c r="C67">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D67">
+        <v>2662.681</v>
+      </c>
+      <c r="E67">
+        <v>1157.9079999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C68">
+        <v>1E-3</v>
+      </c>
+      <c r="D68">
+        <v>12.073</v>
+      </c>
+      <c r="E68">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>0.11</v>
+      </c>
+      <c r="C69">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D69">
+        <v>11596240.982999999</v>
+      </c>
+      <c r="E69">
+        <v>1163601.4210000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C70">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D70">
+        <v>2064174.1839999999</v>
+      </c>
+      <c r="E70">
+        <v>555578.87399999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D71">
+        <v>5301757.4800000004</v>
+      </c>
+      <c r="E71">
+        <v>93924.078999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C72">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D72">
+        <v>10.244999999999999</v>
+      </c>
+      <c r="E72">
+        <v>1.919</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C73">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D73">
+        <v>25.238</v>
+      </c>
+      <c r="E73">
+        <v>2.359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>AVERAGE(B2:B73)</f>
+        <v>0.14183333333333337</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ref="C74:E74" si="0">AVERAGE(C2:C73)</f>
+        <v>1.1638888888888891E-2</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="0"/>
+        <v>561281.34706944437</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="0"/>
+        <v>39819.091402777791</v>
       </c>
     </row>
   </sheetData>
